--- a/database/seeders/enderecos/xlsx/seed_estado.xlsx
+++ b/database/seeders/enderecos/xlsx/seed_estado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maia/Documents/Projetos/gcm/backend/src/shared/infra/typeorm/seeds/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB6A09-0FAD-A54F-9BD7-C2D27000B3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F7A42-784D-B14C-8C7B-CDA1318CDA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="520" windowWidth="27320" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
